--- a/Modelos em Python/resultados_com_erros_modelos_desejados.xlsx
+++ b/Modelos em Python/resultados_com_erros_modelos_desejados.xlsx
@@ -836,13 +836,13 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
     </row>
     <row r="11">
@@ -1316,13 +1316,13 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
     </row>
     <row r="23">
@@ -1796,13 +1796,13 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="I34" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
     </row>
     <row r="35">
@@ -2276,13 +2276,13 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
     </row>
     <row r="47">
@@ -2756,13 +2756,13 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="I58" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
     </row>
     <row r="59">
@@ -3236,13 +3236,13 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="I70" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="J70" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
     </row>
     <row r="71">
@@ -3716,13 +3716,13 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="I82" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
     </row>
     <row r="83">
@@ -4196,13 +4196,13 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="I94" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="J94" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
     </row>
     <row r="95">
@@ -4342,13 +4342,13 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="E98" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -4382,13 +4382,13 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -4422,13 +4422,13 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="E100" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -4502,13 +4502,13 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -4542,13 +4542,13 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -4582,13 +4582,13 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="E104" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -4662,13 +4662,13 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -4676,13 +4676,13 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="I106" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
     </row>
     <row r="107">
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -4742,13 +4742,13 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="F108" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -4782,13 +4782,13 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -4822,13 +4822,13 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="E110" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="F110" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -4862,13 +4862,13 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="F111" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -4902,13 +4902,13 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="E112" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="F112" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -4942,13 +4942,13 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="E113" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="F113" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -4982,13 +4982,13 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="E114" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5022,13 +5022,13 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="E115" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="F115" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5062,13 +5062,13 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="E116" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="F116" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5102,13 +5102,13 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="E117" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="F117" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="E118" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="F118" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -5156,13 +5156,13 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="I118" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="J118" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
     </row>
     <row r="119">
@@ -5182,13 +5182,13 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="E119" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="F119" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -5222,13 +5222,13 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="E120" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="F120" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -5262,13 +5262,13 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="E121" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="F121" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -5302,13 +5302,13 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="E122" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="F122" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -5342,13 +5342,13 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="E123" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="F123" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -5382,13 +5382,13 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="F124" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -5422,13 +5422,13 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="E125" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="F125" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -5462,13 +5462,13 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="E126" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="F126" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -5502,13 +5502,13 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="E127" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="F127" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -5542,13 +5542,13 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="E128" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="F128" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="E129" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="F129" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -5622,13 +5622,13 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="E130" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="F130" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -5636,13 +5636,13 @@
         </is>
       </c>
       <c r="H130" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="I130" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="J130" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
     </row>
     <row r="131">
@@ -5662,13 +5662,13 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="E131" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="F131" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -5702,13 +5702,13 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="E132" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="F132" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -5742,13 +5742,13 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="E133" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="F133" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -5782,13 +5782,13 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="E134" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="F134" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="E135" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="F135" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -5862,13 +5862,13 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="E136" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="F136" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -5902,13 +5902,13 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="E137" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="F137" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -5942,13 +5942,13 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="E138" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="F138" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -5982,13 +5982,13 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="E139" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="F139" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -6022,13 +6022,13 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="E140" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="F140" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -6062,13 +6062,13 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="E141" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="F141" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -6102,13 +6102,13 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="E142" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="F142" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -6116,13 +6116,13 @@
         </is>
       </c>
       <c r="H142" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="I142" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="J142" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
     </row>
     <row r="143">
@@ -6142,13 +6142,13 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="E143" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="F143" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -6182,13 +6182,13 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="E144" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="F144" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -6222,13 +6222,13 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="E145" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="F145" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -6596,13 +6596,13 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="I154" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
     </row>
     <row r="155">
@@ -7076,13 +7076,13 @@
         </is>
       </c>
       <c r="H166" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="I166" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="J166" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
     </row>
     <row r="167">
@@ -7556,13 +7556,13 @@
         </is>
       </c>
       <c r="H178" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="I178" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="J178" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
     </row>
     <row r="179">
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="H190" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="I190" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="J190" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
     </row>
     <row r="191">
@@ -8516,13 +8516,13 @@
         </is>
       </c>
       <c r="H202" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="I202" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="J202" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
     </row>
     <row r="203">
@@ -8996,13 +8996,13 @@
         </is>
       </c>
       <c r="H214" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="I214" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="J214" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
     </row>
     <row r="215">
@@ -9476,13 +9476,13 @@
         </is>
       </c>
       <c r="H226" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="I226" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="J226" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
     </row>
     <row r="227">
@@ -9956,13 +9956,13 @@
         </is>
       </c>
       <c r="H238" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="I238" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="J238" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
     </row>
     <row r="239">
@@ -10436,13 +10436,13 @@
         </is>
       </c>
       <c r="H250" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="I250" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="J250" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
     </row>
     <row r="251">
@@ -10916,13 +10916,13 @@
         </is>
       </c>
       <c r="H262" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="I262" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="J262" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
     </row>
     <row r="263">
@@ -11396,13 +11396,13 @@
         </is>
       </c>
       <c r="H274" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="I274" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="J274" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
     </row>
     <row r="275">
@@ -11876,13 +11876,13 @@
         </is>
       </c>
       <c r="H286" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="I286" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="J286" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
     </row>
     <row r="287">
@@ -12022,13 +12022,13 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="E290" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="F290" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -12062,13 +12062,13 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="E291" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="F291" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -12102,13 +12102,13 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="E292" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="F292" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -12142,13 +12142,13 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="E293" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="F293" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -12182,13 +12182,13 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="E294" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="F294" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -12222,13 +12222,13 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="E295" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="F295" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -12262,13 +12262,13 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="E296" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="F296" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -12302,13 +12302,13 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="E297" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="F297" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -12342,13 +12342,13 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="E298" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="F298" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -12356,13 +12356,13 @@
         </is>
       </c>
       <c r="H298" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="I298" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="J298" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
     </row>
     <row r="299">
@@ -12382,13 +12382,13 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="E299" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="F299" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -12422,13 +12422,13 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="E300" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="F300" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -12462,13 +12462,13 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="E301" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="F301" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -12502,13 +12502,13 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="E302" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="F302" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -12542,13 +12542,13 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="E303" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="F303" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -12582,13 +12582,13 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="E304" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="F304" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -12622,13 +12622,13 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="E305" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="F305" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -12662,13 +12662,13 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="E306" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="F306" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -12702,13 +12702,13 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="E307" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="F307" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -12742,13 +12742,13 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="E308" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="F308" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -12782,13 +12782,13 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="E309" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="F309" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -12822,13 +12822,13 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="E310" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="F310" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -12836,13 +12836,13 @@
         </is>
       </c>
       <c r="H310" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="I310" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="J310" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
     </row>
     <row r="311">
@@ -12862,13 +12862,13 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="E311" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="F311" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -12902,13 +12902,13 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="E312" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="F312" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -12942,13 +12942,13 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="E313" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="F313" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -12982,13 +12982,13 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="E314" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="F314" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -13022,13 +13022,13 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="E315" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="F315" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -13062,13 +13062,13 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="E316" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="F316" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -13102,13 +13102,13 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="E317" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="F317" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -13142,13 +13142,13 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="E318" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="F318" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -13182,13 +13182,13 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="E319" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="F319" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -13222,13 +13222,13 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="E320" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="F320" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -13262,13 +13262,13 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="E321" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="F321" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -13302,13 +13302,13 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="E322" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="F322" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -13316,13 +13316,13 @@
         </is>
       </c>
       <c r="H322" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="I322" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="J322" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
     </row>
     <row r="323">
@@ -13342,13 +13342,13 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="E323" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="F323" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -13382,13 +13382,13 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="E324" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="F324" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -13422,13 +13422,13 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="E325" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="F325" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -13462,13 +13462,13 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="E326" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="F326" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -13502,13 +13502,13 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="E327" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="F327" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -13542,13 +13542,13 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="E328" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="F328" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -13582,13 +13582,13 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="E329" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="F329" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -13622,13 +13622,13 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="E330" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="F330" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -13662,13 +13662,13 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="E331" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="F331" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -13702,13 +13702,13 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="E332" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="F332" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -13742,13 +13742,13 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="E333" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="F333" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -13782,13 +13782,13 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="E334" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="F334" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -13796,13 +13796,13 @@
         </is>
       </c>
       <c r="H334" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="I334" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="J334" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
     </row>
     <row r="335">
@@ -13822,13 +13822,13 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="E335" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="F335" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -13862,13 +13862,13 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="E336" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="F336" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -13902,13 +13902,13 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="E337" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="F337" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -14276,13 +14276,13 @@
         </is>
       </c>
       <c r="H346" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="I346" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="J346" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
     </row>
     <row r="347">
@@ -14756,13 +14756,13 @@
         </is>
       </c>
       <c r="H358" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="I358" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="J358" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
     </row>
     <row r="359">
@@ -15236,13 +15236,13 @@
         </is>
       </c>
       <c r="H370" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="I370" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="J370" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
     </row>
     <row r="371">
@@ -15716,13 +15716,13 @@
         </is>
       </c>
       <c r="H382" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="I382" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="J382" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
     </row>
     <row r="383">
@@ -16196,13 +16196,13 @@
         </is>
       </c>
       <c r="H394" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="I394" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="J394" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
     </row>
     <row r="395">
@@ -16676,13 +16676,13 @@
         </is>
       </c>
       <c r="H406" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="I406" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="J406" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
     </row>
     <row r="407">
@@ -17156,13 +17156,13 @@
         </is>
       </c>
       <c r="H418" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="I418" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="J418" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
     </row>
     <row r="419">
@@ -17636,13 +17636,13 @@
         </is>
       </c>
       <c r="H430" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="I430" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="J430" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
     </row>
     <row r="431">
@@ -18116,13 +18116,13 @@
         </is>
       </c>
       <c r="H442" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="I442" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="J442" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
     </row>
     <row r="443">
@@ -18596,13 +18596,13 @@
         </is>
       </c>
       <c r="H454" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="I454" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="J454" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
     </row>
     <row r="455">
@@ -19076,13 +19076,13 @@
         </is>
       </c>
       <c r="H466" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="I466" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="J466" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
     </row>
     <row r="467">
@@ -19556,13 +19556,13 @@
         </is>
       </c>
       <c r="H478" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="I478" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="J478" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
     </row>
     <row r="479">
@@ -19702,13 +19702,13 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="E482" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="F482" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -19742,13 +19742,13 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="E483" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="F483" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -19782,13 +19782,13 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="E484" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="F484" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -19822,13 +19822,13 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="E485" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="F485" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -19862,13 +19862,13 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="E486" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="F486" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -19902,13 +19902,13 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="E487" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="F487" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
       <c r="G487" t="inlineStr">
         <is>
@@ -19942,13 +19942,13 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="E488" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="F488" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
       <c r="G488" t="inlineStr">
         <is>
@@ -19982,13 +19982,13 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="E489" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="F489" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
       <c r="G489" t="inlineStr">
         <is>
@@ -20022,13 +20022,13 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="E490" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="F490" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
       <c r="G490" t="inlineStr">
         <is>
@@ -20036,13 +20036,13 @@
         </is>
       </c>
       <c r="H490" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="I490" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="J490" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
     </row>
     <row r="491">
@@ -20062,13 +20062,13 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="E491" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="F491" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
       <c r="G491" t="inlineStr">
         <is>
@@ -20102,13 +20102,13 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="E492" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="F492" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -20142,13 +20142,13 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="E493" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="F493" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -20182,13 +20182,13 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="E494" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="F494" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
       <c r="G494" t="inlineStr">
         <is>
@@ -20222,13 +20222,13 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="E495" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="F495" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -20262,13 +20262,13 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="E496" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="F496" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -20302,13 +20302,13 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="E497" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="F497" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
@@ -20342,13 +20342,13 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="E498" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="F498" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -20382,13 +20382,13 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="E499" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="F499" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -20422,13 +20422,13 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="E500" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="F500" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -20462,13 +20462,13 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="E501" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="F501" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -20502,13 +20502,13 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="E502" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="F502" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
       <c r="G502" t="inlineStr">
         <is>
@@ -20516,13 +20516,13 @@
         </is>
       </c>
       <c r="H502" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="I502" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="J502" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
     </row>
     <row r="503">
@@ -20542,13 +20542,13 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="E503" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="F503" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
       <c r="G503" t="inlineStr">
         <is>
@@ -20582,13 +20582,13 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="E504" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="F504" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
       <c r="G504" t="inlineStr">
         <is>
@@ -20622,13 +20622,13 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="E505" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="F505" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
       <c r="G505" t="inlineStr">
         <is>
@@ -20662,13 +20662,13 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="E506" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="F506" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
       <c r="G506" t="inlineStr">
         <is>
@@ -20702,13 +20702,13 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="E507" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="F507" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
       <c r="G507" t="inlineStr">
         <is>
@@ -20742,13 +20742,13 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="E508" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="F508" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
       <c r="G508" t="inlineStr">
         <is>
@@ -20782,13 +20782,13 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="E509" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="F509" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
       <c r="G509" t="inlineStr">
         <is>
@@ -20822,13 +20822,13 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="E510" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="F510" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
       <c r="G510" t="inlineStr">
         <is>
@@ -20862,13 +20862,13 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="E511" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="F511" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
       <c r="G511" t="inlineStr">
         <is>
@@ -20902,13 +20902,13 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="E512" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="F512" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
       <c r="G512" t="inlineStr">
         <is>
@@ -20942,13 +20942,13 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="E513" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="F513" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
       <c r="G513" t="inlineStr">
         <is>
@@ -20982,13 +20982,13 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="E514" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="F514" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
       <c r="G514" t="inlineStr">
         <is>
@@ -20996,13 +20996,13 @@
         </is>
       </c>
       <c r="H514" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="I514" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="J514" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
     </row>
     <row r="515">
@@ -21022,13 +21022,13 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="E515" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="F515" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
       <c r="G515" t="inlineStr">
         <is>
@@ -21062,13 +21062,13 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="E516" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="F516" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
       <c r="G516" t="inlineStr">
         <is>
@@ -21102,13 +21102,13 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="E517" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="F517" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
       <c r="G517" t="inlineStr">
         <is>
@@ -21142,13 +21142,13 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="E518" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="F518" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
       <c r="G518" t="inlineStr">
         <is>
@@ -21182,13 +21182,13 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="E519" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="F519" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
       <c r="G519" t="inlineStr">
         <is>
@@ -21222,13 +21222,13 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="E520" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="F520" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
       <c r="G520" t="inlineStr">
         <is>
@@ -21262,13 +21262,13 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="E521" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="F521" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
       <c r="G521" t="inlineStr">
         <is>
@@ -21302,13 +21302,13 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="E522" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="F522" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
       <c r="G522" t="inlineStr">
         <is>
@@ -21342,13 +21342,13 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="E523" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="F523" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
       <c r="G523" t="inlineStr">
         <is>
@@ -21382,13 +21382,13 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="E524" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="F524" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
       <c r="G524" t="inlineStr">
         <is>
@@ -21422,13 +21422,13 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="E525" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="F525" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
       <c r="G525" t="inlineStr">
         <is>
@@ -21462,13 +21462,13 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="E526" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="F526" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
       <c r="G526" t="inlineStr">
         <is>
@@ -21476,13 +21476,13 @@
         </is>
       </c>
       <c r="H526" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="I526" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="J526" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
     </row>
     <row r="527">
@@ -21502,13 +21502,13 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="E527" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="F527" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
       <c r="G527" t="inlineStr">
         <is>
@@ -21542,13 +21542,13 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="E528" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="F528" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
       <c r="G528" t="inlineStr">
         <is>
@@ -21582,13 +21582,13 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="E529" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="F529" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
       <c r="G529" t="inlineStr">
         <is>
@@ -21956,13 +21956,13 @@
         </is>
       </c>
       <c r="H538" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="I538" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="J538" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
     </row>
     <row r="539">
@@ -22436,13 +22436,13 @@
         </is>
       </c>
       <c r="H550" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="I550" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="J550" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
     </row>
     <row r="551">
@@ -22916,13 +22916,13 @@
         </is>
       </c>
       <c r="H562" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="I562" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="J562" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
     </row>
     <row r="563">
@@ -23396,13 +23396,13 @@
         </is>
       </c>
       <c r="H574" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="I574" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="J574" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
     </row>
     <row r="575">
@@ -23876,13 +23876,13 @@
         </is>
       </c>
       <c r="H586" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="I586" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="J586" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
     </row>
     <row r="587">
@@ -24356,13 +24356,13 @@
         </is>
       </c>
       <c r="H598" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="I598" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="J598" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
     </row>
     <row r="599">
@@ -24836,13 +24836,13 @@
         </is>
       </c>
       <c r="H610" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="I610" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="J610" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
     </row>
     <row r="611">
@@ -25316,13 +25316,13 @@
         </is>
       </c>
       <c r="H622" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="I622" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="J622" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
     </row>
     <row r="623">
@@ -25796,13 +25796,13 @@
         </is>
       </c>
       <c r="H634" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="I634" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="J634" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
     </row>
     <row r="635">
@@ -26276,13 +26276,13 @@
         </is>
       </c>
       <c r="H646" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="I646" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="J646" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
     </row>
     <row r="647">
@@ -26756,13 +26756,13 @@
         </is>
       </c>
       <c r="H658" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="I658" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="J658" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
     </row>
     <row r="659">
@@ -27236,13 +27236,13 @@
         </is>
       </c>
       <c r="H670" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="I670" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="J670" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
     </row>
     <row r="671">
@@ -27382,13 +27382,13 @@
         </is>
       </c>
       <c r="D674" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="E674" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="F674" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
       <c r="G674" t="inlineStr">
         <is>
@@ -27422,13 +27422,13 @@
         </is>
       </c>
       <c r="D675" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="E675" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="F675" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
       <c r="G675" t="inlineStr">
         <is>
@@ -27462,13 +27462,13 @@
         </is>
       </c>
       <c r="D676" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="E676" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="F676" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
       <c r="G676" t="inlineStr">
         <is>
@@ -27502,13 +27502,13 @@
         </is>
       </c>
       <c r="D677" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="E677" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="F677" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
       <c r="G677" t="inlineStr">
         <is>
@@ -27542,13 +27542,13 @@
         </is>
       </c>
       <c r="D678" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="E678" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="F678" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
       <c r="G678" t="inlineStr">
         <is>
@@ -27582,13 +27582,13 @@
         </is>
       </c>
       <c r="D679" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="E679" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="F679" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
       <c r="G679" t="inlineStr">
         <is>
@@ -27622,13 +27622,13 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="E680" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="F680" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
       <c r="G680" t="inlineStr">
         <is>
@@ -27662,13 +27662,13 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="E681" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="F681" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
       <c r="G681" t="inlineStr">
         <is>
@@ -27702,13 +27702,13 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="E682" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="F682" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
       <c r="G682" t="inlineStr">
         <is>
@@ -27716,13 +27716,13 @@
         </is>
       </c>
       <c r="H682" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="I682" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="J682" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
     </row>
     <row r="683">
@@ -27742,13 +27742,13 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="E683" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="F683" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
       <c r="G683" t="inlineStr">
         <is>
@@ -27782,13 +27782,13 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="E684" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="F684" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
       <c r="G684" t="inlineStr">
         <is>
@@ -27822,13 +27822,13 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="E685" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="F685" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
       <c r="G685" t="inlineStr">
         <is>
@@ -27862,13 +27862,13 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="E686" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="F686" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
       <c r="G686" t="inlineStr">
         <is>
@@ -27902,13 +27902,13 @@
         </is>
       </c>
       <c r="D687" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="E687" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="F687" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
       <c r="G687" t="inlineStr">
         <is>
@@ -27942,13 +27942,13 @@
         </is>
       </c>
       <c r="D688" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="E688" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="F688" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
       <c r="G688" t="inlineStr">
         <is>
@@ -27982,13 +27982,13 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="E689" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="F689" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
       <c r="G689" t="inlineStr">
         <is>
@@ -28022,13 +28022,13 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="E690" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="F690" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
       <c r="G690" t="inlineStr">
         <is>
@@ -28062,13 +28062,13 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="E691" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="F691" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
       <c r="G691" t="inlineStr">
         <is>
@@ -28102,13 +28102,13 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="E692" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="F692" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
       <c r="G692" t="inlineStr">
         <is>
@@ -28142,13 +28142,13 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="E693" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="F693" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
       <c r="G693" t="inlineStr">
         <is>
@@ -28182,13 +28182,13 @@
         </is>
       </c>
       <c r="D694" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="E694" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="F694" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
       <c r="G694" t="inlineStr">
         <is>
@@ -28196,13 +28196,13 @@
         </is>
       </c>
       <c r="H694" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="I694" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="J694" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
     </row>
     <row r="695">
@@ -28222,13 +28222,13 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="E695" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="F695" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
       <c r="G695" t="inlineStr">
         <is>
@@ -28262,13 +28262,13 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="E696" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="F696" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
       <c r="G696" t="inlineStr">
         <is>
@@ -28302,13 +28302,13 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="E697" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="F697" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
       <c r="G697" t="inlineStr">
         <is>
@@ -28342,13 +28342,13 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="E698" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="F698" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
       <c r="G698" t="inlineStr">
         <is>
@@ -28382,13 +28382,13 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="E699" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="F699" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
       <c r="G699" t="inlineStr">
         <is>
@@ -28422,13 +28422,13 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="E700" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="F700" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
       <c r="G700" t="inlineStr">
         <is>
@@ -28462,13 +28462,13 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="E701" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="F701" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
       <c r="G701" t="inlineStr">
         <is>
@@ -28502,13 +28502,13 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="E702" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="F702" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
       <c r="G702" t="inlineStr">
         <is>
@@ -28542,13 +28542,13 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="E703" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="F703" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
       <c r="G703" t="inlineStr">
         <is>
@@ -28582,13 +28582,13 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="E704" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="F704" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
       <c r="G704" t="inlineStr">
         <is>
@@ -28622,13 +28622,13 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="E705" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="F705" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
       <c r="G705" t="inlineStr">
         <is>
@@ -28662,13 +28662,13 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="E706" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="F706" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
       <c r="G706" t="inlineStr">
         <is>
@@ -28676,13 +28676,13 @@
         </is>
       </c>
       <c r="H706" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="I706" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="J706" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
     </row>
     <row r="707">
@@ -28702,13 +28702,13 @@
         </is>
       </c>
       <c r="D707" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="E707" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="F707" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
       <c r="G707" t="inlineStr">
         <is>
@@ -28742,13 +28742,13 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="E708" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="F708" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
       <c r="G708" t="inlineStr">
         <is>
@@ -28782,13 +28782,13 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="E709" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="F709" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
       <c r="G709" t="inlineStr">
         <is>
@@ -28822,13 +28822,13 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="E710" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="F710" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
       <c r="G710" t="inlineStr">
         <is>
@@ -28862,13 +28862,13 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="E711" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="F711" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
       <c r="G711" t="inlineStr">
         <is>
@@ -28902,13 +28902,13 @@
         </is>
       </c>
       <c r="D712" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="E712" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="F712" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
       <c r="G712" t="inlineStr">
         <is>
@@ -28942,13 +28942,13 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="E713" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="F713" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
       <c r="G713" t="inlineStr">
         <is>
@@ -28982,13 +28982,13 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="E714" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="F714" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
       <c r="G714" t="inlineStr">
         <is>
@@ -29022,13 +29022,13 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="E715" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="F715" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
       <c r="G715" t="inlineStr">
         <is>
@@ -29062,13 +29062,13 @@
         </is>
       </c>
       <c r="D716" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="E716" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="F716" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
       <c r="G716" t="inlineStr">
         <is>
@@ -29102,13 +29102,13 @@
         </is>
       </c>
       <c r="D717" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="E717" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="F717" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
       <c r="G717" t="inlineStr">
         <is>
@@ -29142,13 +29142,13 @@
         </is>
       </c>
       <c r="D718" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="E718" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="F718" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
       <c r="G718" t="inlineStr">
         <is>
@@ -29156,13 +29156,13 @@
         </is>
       </c>
       <c r="H718" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="I718" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="J718" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
     </row>
     <row r="719">
@@ -29182,13 +29182,13 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="E719" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="F719" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
       <c r="G719" t="inlineStr">
         <is>
@@ -29222,13 +29222,13 @@
         </is>
       </c>
       <c r="D720" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="E720" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="F720" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
       <c r="G720" t="inlineStr">
         <is>
@@ -29262,13 +29262,13 @@
         </is>
       </c>
       <c r="D721" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="E721" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="F721" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
       <c r="G721" t="inlineStr">
         <is>
@@ -29636,13 +29636,13 @@
         </is>
       </c>
       <c r="H730" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="I730" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="J730" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
     </row>
     <row r="731">
@@ -30116,13 +30116,13 @@
         </is>
       </c>
       <c r="H742" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="I742" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="J742" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
     </row>
     <row r="743">
@@ -30596,13 +30596,13 @@
         </is>
       </c>
       <c r="H754" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="I754" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="J754" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
     </row>
     <row r="755">
@@ -31076,13 +31076,13 @@
         </is>
       </c>
       <c r="H766" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="I766" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="J766" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
     </row>
     <row r="767">

--- a/Modelos em Python/resultados_com_erros_modelos_desejados.xlsx
+++ b/Modelos em Python/resultados_com_erros_modelos_desejados.xlsx
@@ -836,13 +836,13 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
     </row>
     <row r="11">
@@ -1316,13 +1316,13 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
     </row>
     <row r="23">
@@ -1796,13 +1796,13 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="I34" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
     </row>
     <row r="35">
@@ -2276,13 +2276,13 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="J46" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
     </row>
     <row r="47">
@@ -2756,13 +2756,13 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="I58" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
     </row>
     <row r="59">
@@ -3236,13 +3236,13 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="I70" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="J70" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
     </row>
     <row r="71">
@@ -3716,13 +3716,13 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="I82" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
     </row>
     <row r="83">
@@ -4196,13 +4196,13 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="I94" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="J94" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
     </row>
     <row r="95">
@@ -4342,13 +4342,13 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="E98" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -4382,13 +4382,13 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -4422,13 +4422,13 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="E100" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -4502,13 +4502,13 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -4542,13 +4542,13 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -4582,13 +4582,13 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="E104" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -4662,13 +4662,13 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -4676,13 +4676,13 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="I106" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
     </row>
     <row r="107">
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -4742,13 +4742,13 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="F108" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -4782,13 +4782,13 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -4822,13 +4822,13 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="E110" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="F110" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -4862,13 +4862,13 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="F111" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -4902,13 +4902,13 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="E112" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="F112" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -4942,13 +4942,13 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="E113" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="F113" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -4982,13 +4982,13 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="E114" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5022,13 +5022,13 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="E115" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="F115" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5062,13 +5062,13 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="E116" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="F116" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5102,13 +5102,13 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="E117" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="F117" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="E118" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="F118" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -5156,13 +5156,13 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="I118" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="J118" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
     </row>
     <row r="119">
@@ -5182,13 +5182,13 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="E119" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="F119" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -5222,13 +5222,13 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="E120" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="F120" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -5262,13 +5262,13 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="E121" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="F121" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -5302,13 +5302,13 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="E122" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="F122" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -5342,13 +5342,13 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="E123" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="F123" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -5382,13 +5382,13 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="F124" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -5422,13 +5422,13 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="E125" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="F125" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -5462,13 +5462,13 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="E126" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="F126" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -5502,13 +5502,13 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="E127" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="F127" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -5542,13 +5542,13 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="E128" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="F128" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="E129" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="F129" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -5622,13 +5622,13 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="E130" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="F130" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -5636,13 +5636,13 @@
         </is>
       </c>
       <c r="H130" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="I130" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="J130" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
     </row>
     <row r="131">
@@ -5662,13 +5662,13 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="E131" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="F131" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -5702,13 +5702,13 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="E132" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="F132" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -5742,13 +5742,13 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="E133" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="F133" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -5782,13 +5782,13 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="E134" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="F134" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="E135" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="F135" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -5862,13 +5862,13 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="E136" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="F136" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -5902,13 +5902,13 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="E137" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="F137" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -5942,13 +5942,13 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="E138" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="F138" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -5982,13 +5982,13 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="E139" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="F139" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -6022,13 +6022,13 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="E140" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="F140" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -6062,13 +6062,13 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="E141" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="F141" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -6102,13 +6102,13 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="E142" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="F142" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -6116,13 +6116,13 @@
         </is>
       </c>
       <c r="H142" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="I142" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="J142" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
     </row>
     <row r="143">
@@ -6142,13 +6142,13 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="E143" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="F143" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -6182,13 +6182,13 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="E144" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="F144" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -6222,13 +6222,13 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="E145" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="F145" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -6596,13 +6596,13 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="I154" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
     </row>
     <row r="155">
@@ -7076,13 +7076,13 @@
         </is>
       </c>
       <c r="H166" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="I166" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="J166" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
     </row>
     <row r="167">
@@ -7556,13 +7556,13 @@
         </is>
       </c>
       <c r="H178" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="I178" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="J178" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
     </row>
     <row r="179">
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="H190" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="I190" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="J190" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
     </row>
     <row r="191">
@@ -8516,13 +8516,13 @@
         </is>
       </c>
       <c r="H202" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="I202" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="J202" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
     </row>
     <row r="203">
@@ -8996,13 +8996,13 @@
         </is>
       </c>
       <c r="H214" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="I214" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="J214" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
     </row>
     <row r="215">
@@ -9476,13 +9476,13 @@
         </is>
       </c>
       <c r="H226" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="I226" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="J226" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
     </row>
     <row r="227">
@@ -9956,13 +9956,13 @@
         </is>
       </c>
       <c r="H238" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="I238" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="J238" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
     </row>
     <row r="239">
@@ -10436,13 +10436,13 @@
         </is>
       </c>
       <c r="H250" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="I250" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="J250" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
     </row>
     <row r="251">
@@ -10916,13 +10916,13 @@
         </is>
       </c>
       <c r="H262" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="I262" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="J262" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
     </row>
     <row r="263">
@@ -11396,13 +11396,13 @@
         </is>
       </c>
       <c r="H274" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="I274" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="J274" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
     </row>
     <row r="275">
@@ -11876,13 +11876,13 @@
         </is>
       </c>
       <c r="H286" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="I286" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="J286" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
     </row>
     <row r="287">
@@ -12022,13 +12022,13 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="E290" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="F290" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -12062,13 +12062,13 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="E291" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="F291" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -12102,13 +12102,13 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="E292" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="F292" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -12142,13 +12142,13 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="E293" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="F293" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -12182,13 +12182,13 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="E294" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="F294" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -12222,13 +12222,13 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="E295" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="F295" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -12262,13 +12262,13 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="E296" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="F296" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -12302,13 +12302,13 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="E297" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="F297" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -12342,13 +12342,13 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="E298" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="F298" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -12356,13 +12356,13 @@
         </is>
       </c>
       <c r="H298" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="I298" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="J298" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
     </row>
     <row r="299">
@@ -12382,13 +12382,13 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="E299" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="F299" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -12422,13 +12422,13 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="E300" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="F300" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -12462,13 +12462,13 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="E301" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="F301" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -12502,13 +12502,13 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="E302" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="F302" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -12542,13 +12542,13 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="E303" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="F303" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -12582,13 +12582,13 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="E304" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="F304" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -12622,13 +12622,13 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="E305" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="F305" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -12662,13 +12662,13 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="E306" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="F306" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -12702,13 +12702,13 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="E307" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="F307" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -12742,13 +12742,13 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="E308" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="F308" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -12782,13 +12782,13 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="E309" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="F309" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -12822,13 +12822,13 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="E310" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="F310" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -12836,13 +12836,13 @@
         </is>
       </c>
       <c r="H310" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="I310" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="J310" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
     </row>
     <row r="311">
@@ -12862,13 +12862,13 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="E311" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="F311" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -12902,13 +12902,13 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="E312" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="F312" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -12942,13 +12942,13 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="E313" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="F313" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -12982,13 +12982,13 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="E314" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="F314" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -13022,13 +13022,13 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="E315" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="F315" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -13062,13 +13062,13 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="E316" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="F316" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -13102,13 +13102,13 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="E317" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="F317" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -13142,13 +13142,13 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="E318" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="F318" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -13182,13 +13182,13 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="E319" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="F319" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -13222,13 +13222,13 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="E320" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="F320" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -13262,13 +13262,13 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="E321" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="F321" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -13302,13 +13302,13 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="E322" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="F322" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -13316,13 +13316,13 @@
         </is>
       </c>
       <c r="H322" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="I322" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="J322" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
     </row>
     <row r="323">
@@ -13342,13 +13342,13 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="E323" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="F323" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -13382,13 +13382,13 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="E324" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="F324" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -13422,13 +13422,13 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="E325" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="F325" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -13462,13 +13462,13 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="E326" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="F326" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -13502,13 +13502,13 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="E327" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="F327" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -13542,13 +13542,13 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="E328" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="F328" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -13582,13 +13582,13 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="E329" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="F329" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -13622,13 +13622,13 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="E330" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="F330" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -13662,13 +13662,13 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="E331" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="F331" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -13702,13 +13702,13 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="E332" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="F332" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -13742,13 +13742,13 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="E333" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="F333" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -13782,13 +13782,13 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="E334" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="F334" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -13796,13 +13796,13 @@
         </is>
       </c>
       <c r="H334" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="I334" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="J334" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
     </row>
     <row r="335">
@@ -13822,13 +13822,13 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="E335" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="F335" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -13862,13 +13862,13 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="E336" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="F336" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -13902,13 +13902,13 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="E337" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="F337" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -14276,13 +14276,13 @@
         </is>
       </c>
       <c r="H346" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="I346" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="J346" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
     </row>
     <row r="347">
@@ -14756,13 +14756,13 @@
         </is>
       </c>
       <c r="H358" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="I358" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="J358" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
     </row>
     <row r="359">
@@ -15236,13 +15236,13 @@
         </is>
       </c>
       <c r="H370" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="I370" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="J370" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
     </row>
     <row r="371">
@@ -15716,13 +15716,13 @@
         </is>
       </c>
       <c r="H382" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="I382" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="J382" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
     </row>
     <row r="383">
@@ -16196,13 +16196,13 @@
         </is>
       </c>
       <c r="H394" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="I394" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="J394" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
     </row>
     <row r="395">
@@ -16676,13 +16676,13 @@
         </is>
       </c>
       <c r="H406" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="I406" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="J406" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
     </row>
     <row r="407">
@@ -17156,13 +17156,13 @@
         </is>
       </c>
       <c r="H418" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="I418" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="J418" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
     </row>
     <row r="419">
@@ -17636,13 +17636,13 @@
         </is>
       </c>
       <c r="H430" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="I430" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="J430" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
     </row>
     <row r="431">
@@ -18116,13 +18116,13 @@
         </is>
       </c>
       <c r="H442" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="I442" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="J442" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
     </row>
     <row r="443">
@@ -18596,13 +18596,13 @@
         </is>
       </c>
       <c r="H454" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="I454" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="J454" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
     </row>
     <row r="455">
@@ -19076,13 +19076,13 @@
         </is>
       </c>
       <c r="H466" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="I466" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="J466" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
     </row>
     <row r="467">
@@ -19556,13 +19556,13 @@
         </is>
       </c>
       <c r="H478" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="I478" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="J478" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
     </row>
     <row r="479">
@@ -19702,13 +19702,13 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="E482" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="F482" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -19742,13 +19742,13 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="E483" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="F483" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -19782,13 +19782,13 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="E484" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="F484" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -19822,13 +19822,13 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="E485" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="F485" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -19862,13 +19862,13 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="E486" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="F486" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -19902,13 +19902,13 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="E487" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="F487" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
       <c r="G487" t="inlineStr">
         <is>
@@ -19942,13 +19942,13 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="E488" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="F488" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
       <c r="G488" t="inlineStr">
         <is>
@@ -19982,13 +19982,13 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="E489" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="F489" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
       <c r="G489" t="inlineStr">
         <is>
@@ -20022,13 +20022,13 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="E490" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="F490" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
       <c r="G490" t="inlineStr">
         <is>
@@ -20036,13 +20036,13 @@
         </is>
       </c>
       <c r="H490" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="I490" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="J490" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
     </row>
     <row r="491">
@@ -20062,13 +20062,13 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="E491" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="F491" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
       <c r="G491" t="inlineStr">
         <is>
@@ -20102,13 +20102,13 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="E492" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="F492" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -20142,13 +20142,13 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="E493" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="F493" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -20182,13 +20182,13 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="E494" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="F494" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
       <c r="G494" t="inlineStr">
         <is>
@@ -20222,13 +20222,13 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="E495" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="F495" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -20262,13 +20262,13 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="E496" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="F496" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -20302,13 +20302,13 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="E497" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="F497" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
@@ -20342,13 +20342,13 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="E498" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="F498" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -20382,13 +20382,13 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="E499" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="F499" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -20422,13 +20422,13 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="E500" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="F500" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -20462,13 +20462,13 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="E501" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="F501" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -20502,13 +20502,13 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="E502" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="F502" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
       <c r="G502" t="inlineStr">
         <is>
@@ -20516,13 +20516,13 @@
         </is>
       </c>
       <c r="H502" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="I502" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="J502" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
     </row>
     <row r="503">
@@ -20542,13 +20542,13 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="E503" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="F503" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
       <c r="G503" t="inlineStr">
         <is>
@@ -20582,13 +20582,13 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="E504" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="F504" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
       <c r="G504" t="inlineStr">
         <is>
@@ -20622,13 +20622,13 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="E505" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="F505" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
       <c r="G505" t="inlineStr">
         <is>
@@ -20662,13 +20662,13 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="E506" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="F506" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
       <c r="G506" t="inlineStr">
         <is>
@@ -20702,13 +20702,13 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="E507" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="F507" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
       <c r="G507" t="inlineStr">
         <is>
@@ -20742,13 +20742,13 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="E508" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="F508" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
       <c r="G508" t="inlineStr">
         <is>
@@ -20782,13 +20782,13 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="E509" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="F509" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
       <c r="G509" t="inlineStr">
         <is>
@@ -20822,13 +20822,13 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="E510" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="F510" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
       <c r="G510" t="inlineStr">
         <is>
@@ -20862,13 +20862,13 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="E511" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="F511" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
       <c r="G511" t="inlineStr">
         <is>
@@ -20902,13 +20902,13 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="E512" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="F512" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
       <c r="G512" t="inlineStr">
         <is>
@@ -20942,13 +20942,13 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="E513" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="F513" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
       <c r="G513" t="inlineStr">
         <is>
@@ -20982,13 +20982,13 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="E514" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="F514" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
       <c r="G514" t="inlineStr">
         <is>
@@ -20996,13 +20996,13 @@
         </is>
       </c>
       <c r="H514" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="I514" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="J514" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
     </row>
     <row r="515">
@@ -21022,13 +21022,13 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="E515" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="F515" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
       <c r="G515" t="inlineStr">
         <is>
@@ -21062,13 +21062,13 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="E516" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="F516" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
       <c r="G516" t="inlineStr">
         <is>
@@ -21102,13 +21102,13 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="E517" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="F517" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
       <c r="G517" t="inlineStr">
         <is>
@@ -21142,13 +21142,13 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="E518" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="F518" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
       <c r="G518" t="inlineStr">
         <is>
@@ -21182,13 +21182,13 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="E519" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="F519" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
       <c r="G519" t="inlineStr">
         <is>
@@ -21222,13 +21222,13 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="E520" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="F520" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
       <c r="G520" t="inlineStr">
         <is>
@@ -21262,13 +21262,13 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="E521" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="F521" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
       <c r="G521" t="inlineStr">
         <is>
@@ -21302,13 +21302,13 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="E522" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="F522" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
       <c r="G522" t="inlineStr">
         <is>
@@ -21342,13 +21342,13 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="E523" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="F523" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
       <c r="G523" t="inlineStr">
         <is>
@@ -21382,13 +21382,13 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="E524" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="F524" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
       <c r="G524" t="inlineStr">
         <is>
@@ -21422,13 +21422,13 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="E525" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="F525" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
       <c r="G525" t="inlineStr">
         <is>
@@ -21462,13 +21462,13 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="E526" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="F526" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
       <c r="G526" t="inlineStr">
         <is>
@@ -21476,13 +21476,13 @@
         </is>
       </c>
       <c r="H526" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="I526" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="J526" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
     </row>
     <row r="527">
@@ -21502,13 +21502,13 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="E527" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="F527" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
       <c r="G527" t="inlineStr">
         <is>
@@ -21542,13 +21542,13 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="E528" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="F528" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
       <c r="G528" t="inlineStr">
         <is>
@@ -21582,13 +21582,13 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="E529" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="F529" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
       <c r="G529" t="inlineStr">
         <is>
@@ -21956,13 +21956,13 @@
         </is>
       </c>
       <c r="H538" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="I538" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="J538" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
     </row>
     <row r="539">
@@ -22436,13 +22436,13 @@
         </is>
       </c>
       <c r="H550" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="I550" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="J550" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
     </row>
     <row r="551">
@@ -22916,13 +22916,13 @@
         </is>
       </c>
       <c r="H562" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="I562" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="J562" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
     </row>
     <row r="563">
@@ -23396,13 +23396,13 @@
         </is>
       </c>
       <c r="H574" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="I574" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="J574" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
     </row>
     <row r="575">
@@ -23876,13 +23876,13 @@
         </is>
       </c>
       <c r="H586" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="I586" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="J586" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
     </row>
     <row r="587">
@@ -24356,13 +24356,13 @@
         </is>
       </c>
       <c r="H598" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="I598" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="J598" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
     </row>
     <row r="599">
@@ -24836,13 +24836,13 @@
         </is>
       </c>
       <c r="H610" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="I610" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="J610" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
     </row>
     <row r="611">
@@ -25316,13 +25316,13 @@
         </is>
       </c>
       <c r="H622" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="I622" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="J622" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
     </row>
     <row r="623">
@@ -25796,13 +25796,13 @@
         </is>
       </c>
       <c r="H634" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="I634" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="J634" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
     </row>
     <row r="635">
@@ -26276,13 +26276,13 @@
         </is>
       </c>
       <c r="H646" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="I646" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="J646" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
     </row>
     <row r="647">
@@ -26756,13 +26756,13 @@
         </is>
       </c>
       <c r="H658" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="I658" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="J658" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
     </row>
     <row r="659">
@@ -27236,13 +27236,13 @@
         </is>
       </c>
       <c r="H670" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="I670" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="J670" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
     </row>
     <row r="671">
@@ -27382,13 +27382,13 @@
         </is>
       </c>
       <c r="D674" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="E674" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="F674" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
       <c r="G674" t="inlineStr">
         <is>
@@ -27422,13 +27422,13 @@
         </is>
       </c>
       <c r="D675" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="E675" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="F675" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
       <c r="G675" t="inlineStr">
         <is>
@@ -27462,13 +27462,13 @@
         </is>
       </c>
       <c r="D676" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="E676" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="F676" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
       <c r="G676" t="inlineStr">
         <is>
@@ -27502,13 +27502,13 @@
         </is>
       </c>
       <c r="D677" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="E677" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="F677" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
       <c r="G677" t="inlineStr">
         <is>
@@ -27542,13 +27542,13 @@
         </is>
       </c>
       <c r="D678" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="E678" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="F678" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
       <c r="G678" t="inlineStr">
         <is>
@@ -27582,13 +27582,13 @@
         </is>
       </c>
       <c r="D679" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="E679" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="F679" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
       <c r="G679" t="inlineStr">
         <is>
@@ -27622,13 +27622,13 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="E680" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="F680" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
       <c r="G680" t="inlineStr">
         <is>
@@ -27662,13 +27662,13 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="E681" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="F681" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
       <c r="G681" t="inlineStr">
         <is>
@@ -27702,13 +27702,13 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="E682" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="F682" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
       <c r="G682" t="inlineStr">
         <is>
@@ -27716,13 +27716,13 @@
         </is>
       </c>
       <c r="H682" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="I682" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="J682" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
     </row>
     <row r="683">
@@ -27742,13 +27742,13 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="E683" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="F683" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
       <c r="G683" t="inlineStr">
         <is>
@@ -27782,13 +27782,13 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="E684" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="F684" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
       <c r="G684" t="inlineStr">
         <is>
@@ -27822,13 +27822,13 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="E685" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="F685" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
       <c r="G685" t="inlineStr">
         <is>
@@ -27862,13 +27862,13 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="E686" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="F686" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
       <c r="G686" t="inlineStr">
         <is>
@@ -27902,13 +27902,13 @@
         </is>
       </c>
       <c r="D687" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="E687" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="F687" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
       <c r="G687" t="inlineStr">
         <is>
@@ -27942,13 +27942,13 @@
         </is>
       </c>
       <c r="D688" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="E688" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="F688" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
       <c r="G688" t="inlineStr">
         <is>
@@ -27982,13 +27982,13 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="E689" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="F689" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
       <c r="G689" t="inlineStr">
         <is>
@@ -28022,13 +28022,13 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="E690" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="F690" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
       <c r="G690" t="inlineStr">
         <is>
@@ -28062,13 +28062,13 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="E691" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="F691" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
       <c r="G691" t="inlineStr">
         <is>
@@ -28102,13 +28102,13 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="E692" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="F692" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
       <c r="G692" t="inlineStr">
         <is>
@@ -28142,13 +28142,13 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="E693" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="F693" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
       <c r="G693" t="inlineStr">
         <is>
@@ -28182,13 +28182,13 @@
         </is>
       </c>
       <c r="D694" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="E694" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="F694" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
       <c r="G694" t="inlineStr">
         <is>
@@ -28196,13 +28196,13 @@
         </is>
       </c>
       <c r="H694" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="I694" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="J694" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
     </row>
     <row r="695">
@@ -28222,13 +28222,13 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="E695" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="F695" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
       <c r="G695" t="inlineStr">
         <is>
@@ -28262,13 +28262,13 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="E696" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="F696" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
       <c r="G696" t="inlineStr">
         <is>
@@ -28302,13 +28302,13 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="E697" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="F697" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
       <c r="G697" t="inlineStr">
         <is>
@@ -28342,13 +28342,13 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="E698" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="F698" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
       <c r="G698" t="inlineStr">
         <is>
@@ -28382,13 +28382,13 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="E699" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="F699" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
       <c r="G699" t="inlineStr">
         <is>
@@ -28422,13 +28422,13 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="E700" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="F700" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
       <c r="G700" t="inlineStr">
         <is>
@@ -28462,13 +28462,13 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="E701" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="F701" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
       <c r="G701" t="inlineStr">
         <is>
@@ -28502,13 +28502,13 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="E702" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="F702" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
       <c r="G702" t="inlineStr">
         <is>
@@ -28542,13 +28542,13 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="E703" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="F703" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
       <c r="G703" t="inlineStr">
         <is>
@@ -28582,13 +28582,13 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="E704" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="F704" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
       <c r="G704" t="inlineStr">
         <is>
@@ -28622,13 +28622,13 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="E705" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="F705" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
       <c r="G705" t="inlineStr">
         <is>
@@ -28662,13 +28662,13 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="E706" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="F706" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
       <c r="G706" t="inlineStr">
         <is>
@@ -28676,13 +28676,13 @@
         </is>
       </c>
       <c r="H706" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="I706" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="J706" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
     </row>
     <row r="707">
@@ -28702,13 +28702,13 @@
         </is>
       </c>
       <c r="D707" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="E707" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="F707" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
       <c r="G707" t="inlineStr">
         <is>
@@ -28742,13 +28742,13 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="E708" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="F708" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
       <c r="G708" t="inlineStr">
         <is>
@@ -28782,13 +28782,13 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="E709" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="F709" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
       <c r="G709" t="inlineStr">
         <is>
@@ -28822,13 +28822,13 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="E710" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="F710" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
       <c r="G710" t="inlineStr">
         <is>
@@ -28862,13 +28862,13 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="E711" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="F711" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
       <c r="G711" t="inlineStr">
         <is>
@@ -28902,13 +28902,13 @@
         </is>
       </c>
       <c r="D712" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="E712" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="F712" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
       <c r="G712" t="inlineStr">
         <is>
@@ -28942,13 +28942,13 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="E713" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="F713" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
       <c r="G713" t="inlineStr">
         <is>
@@ -28982,13 +28982,13 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="E714" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="F714" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
       <c r="G714" t="inlineStr">
         <is>
@@ -29022,13 +29022,13 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="E715" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="F715" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
       <c r="G715" t="inlineStr">
         <is>
@@ -29062,13 +29062,13 @@
         </is>
       </c>
       <c r="D716" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="E716" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="F716" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
       <c r="G716" t="inlineStr">
         <is>
@@ -29102,13 +29102,13 @@
         </is>
       </c>
       <c r="D717" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="E717" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="F717" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
       <c r="G717" t="inlineStr">
         <is>
@@ -29142,13 +29142,13 @@
         </is>
       </c>
       <c r="D718" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="E718" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="F718" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
       <c r="G718" t="inlineStr">
         <is>
@@ -29156,13 +29156,13 @@
         </is>
       </c>
       <c r="H718" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="I718" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="J718" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
     </row>
     <row r="719">
@@ -29182,13 +29182,13 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="E719" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="F719" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
       <c r="G719" t="inlineStr">
         <is>
@@ -29222,13 +29222,13 @@
         </is>
       </c>
       <c r="D720" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="E720" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="F720" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
       <c r="G720" t="inlineStr">
         <is>
@@ -29262,13 +29262,13 @@
         </is>
       </c>
       <c r="D721" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="E721" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="F721" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
       <c r="G721" t="inlineStr">
         <is>
@@ -29636,13 +29636,13 @@
         </is>
       </c>
       <c r="H730" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="I730" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="J730" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
     </row>
     <row r="731">
@@ -30116,13 +30116,13 @@
         </is>
       </c>
       <c r="H742" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="I742" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="J742" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
     </row>
     <row r="743">
@@ -30596,13 +30596,13 @@
         </is>
       </c>
       <c r="H754" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="I754" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="J754" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
     </row>
     <row r="755">
@@ -31076,13 +31076,13 @@
         </is>
       </c>
       <c r="H766" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="I766" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="J766" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
     </row>
     <row r="767">
